--- a/biology/Zoologie/Eukoenenia_angusta/Eukoenenia_angusta.xlsx
+++ b/biology/Zoologie/Eukoenenia_angusta/Eukoenenia_angusta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia angusta est une espèce de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Thaïlande, au Sri Lanka et en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Thaïlande, au Sri Lanka et en Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Palpigrades of the World (version 1.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Palpigrades of the World (version 1.0) :
 Eukoenenia angusta angusta Hansen, 1901 de Thaïlande et du Sri Lanka
 Eukoenenia angusta hindua Condé, 1989 d'Inde
 Eukoenenia angusta tamula Remy, 1960 d'Inde</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hansen, 1901 : On six species of Koenenia, with remarks on the order Palpigradi. Entomologisk Tidskrift, vol. 22, p. 193–240 (texte intégral).
 Rémy, 1960 : Palpigrades de la région de Pondichéry Inde). Bulletin du Muséum national d'histoire naturelle, Paris, sér. 2, vol. 32, p. 230-234.
